--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia Barbosa\Documents\GITHUB\OCGModel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3A30C5-9E4F-417D-A904-4F8ABF848CDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF92C85-9D75-496C-BC88-D510102B703F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="0" windowWidth="29783" windowHeight="13680" activeTab="1" xr2:uid="{092E4145-D123-4A76-A88A-DBE561F53C6C}"/>
+    <workbookView xWindow="7778" yWindow="0" windowWidth="29783" windowHeight="13680" xr2:uid="{092E4145-D123-4A76-A88A-DBE561F53C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -20,13 +20,13 @@
     <sheet name="Timeseries" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Mappe3Tabelle11" hidden="1">Tabelle1</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Mappe3Tabelle21" hidden="1">Tabelle2[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Tabelle1AJ1" hidden="1">Data!$B:$L</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Mappe3Tabelle1" hidden="1">Tabelle1</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Mappe3Tabelle2" hidden="1">Tabelle2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Tabelle1AJ" hidden="1">Data!$B:$L</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId6"/>
+    <pivotCache cacheId="17" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -193,7 +193,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Tabelle1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Mappe3Tabelle11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Mappe3Tabelle1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -202,7 +202,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Tabelle2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Mappe3Tabelle21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Mappe3Tabelle2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -211,7 +211,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Bereich" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Tabelle1AJ1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Tabelle1AJ"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1263,37 +1263,7 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1573,7 +1543,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D82B929-2343-4D4A-9782-373CEFFDD6B6}" name="Summary" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" rowHeaderCaption="Parameters" colHeaderCaption="Year">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D82B929-2343-4D4A-9782-373CEFFDD6B6}" name="Summary" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" rowHeaderCaption="Parameters" colHeaderCaption="Year">
   <location ref="A4:S13" firstHeaderRow="1" firstDataRow="3" firstDataCol="4" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1784,7 +1754,7 @@
     <dataField name="note" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -1881,7 +1851,7 @@
     <tableColumn id="4" xr3:uid="{504D511D-F4CC-4FC8-8F8E-135F89745636}" name="Parameter Type"/>
     <tableColumn id="5" xr3:uid="{1DBC8716-5ABC-4FFF-81BC-49D901B155A1}" name="Paramter Name"/>
     <tableColumn id="6" xr3:uid="{5924147F-ED69-4BF5-8E26-5799DF415E69}" name="Unit"/>
-    <tableColumn id="7" xr3:uid="{A1EBE9BB-7315-4DC1-93A3-6C0BBBFB666D}" name="Name with Unit" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{A1EBE9BB-7315-4DC1-93A3-6C0BBBFB666D}" name="Name with Unit" dataDxfId="0">
       <calculatedColumnFormula>F2&amp;" "&amp;G2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{B8C0D1AA-5FD5-4604-9F3F-7494093A825F}" name="Year"/>
@@ -2192,7 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7778C-203A-4C73-AA60-F850B2038441}">
   <dimension ref="A2:S13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2533,7 +2503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E9DF10-24AC-4A6A-9204-A1EA73466D28}">
   <dimension ref="A1:M414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J349" sqref="J349"/>
     </sheetView>
   </sheetViews>
@@ -7503,7 +7473,7 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B155" s="10"/>
       <c r="H155" t="str">
-        <f>F155&amp;" "&amp;G155</f>
+        <f t="shared" ref="H155:H160" si="16">F155&amp;" "&amp;G155</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7530,7 +7500,7 @@
         <v>105</v>
       </c>
       <c r="H156" t="str">
-        <f>F156&amp;" "&amp;G156</f>
+        <f t="shared" si="16"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J156">
@@ -7564,7 +7534,7 @@
         <v>111</v>
       </c>
       <c r="H157" t="str">
-        <f>F157&amp;" "&amp;G157</f>
+        <f t="shared" si="16"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I157">
@@ -7601,7 +7571,7 @@
         <v>111</v>
       </c>
       <c r="H158" t="str">
-        <f>F158&amp;" "&amp;G158</f>
+        <f t="shared" si="16"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I158">
@@ -7638,7 +7608,7 @@
         <v>111</v>
       </c>
       <c r="H159" t="str">
-        <f>F159&amp;" "&amp;G159</f>
+        <f t="shared" si="16"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I159">
@@ -7675,7 +7645,7 @@
         <v>111</v>
       </c>
       <c r="H160" t="str">
-        <f>F160&amp;" "&amp;G160</f>
+        <f t="shared" si="16"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I160">
@@ -7716,7 +7686,7 @@
         <v>111</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" ref="H161:H162" si="16">F161&amp;" "&amp;G161</f>
+        <f t="shared" ref="H161:H162" si="17">F161&amp;" "&amp;G161</f>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I161">
@@ -7753,7 +7723,7 @@
         <v>111</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I162">
@@ -7975,7 +7945,7 @@
         <v>111</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" ref="H169" si="17">F169&amp;" "&amp;G169</f>
+        <f t="shared" ref="H169" si="18">F169&amp;" "&amp;G169</f>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I169">
@@ -8088,7 +8058,7 @@
         <v>105</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" ref="H173" si="18">F173&amp;" "&amp;G173</f>
+        <f t="shared" ref="H173" si="19">F173&amp;" "&amp;G173</f>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J173">
@@ -8274,7 +8244,7 @@
         <v>111</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" ref="H178" si="19">F178&amp;" "&amp;G178</f>
+        <f t="shared" ref="H178" si="20">F178&amp;" "&amp;G178</f>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I178">
@@ -8311,7 +8281,7 @@
         <v>111</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" ref="H179" si="20">F179&amp;" "&amp;G179</f>
+        <f t="shared" ref="H179" si="21">F179&amp;" "&amp;G179</f>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I179">
@@ -8422,7 +8392,7 @@
         <v>103</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" ref="H183:H190" si="21">F183&amp;" "&amp;G183</f>
+        <f t="shared" ref="H183:H190" si="22">F183&amp;" "&amp;G183</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I183">
@@ -8459,7 +8429,7 @@
         <v>103</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I184">
@@ -8496,7 +8466,7 @@
         <v>103</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I185">
@@ -8533,7 +8503,7 @@
         <v>111</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" ref="H186" si="22">F186&amp;" "&amp;G186</f>
+        <f t="shared" ref="H186" si="23">F186&amp;" "&amp;G186</f>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I186">
@@ -8566,7 +8536,7 @@
         <v>111</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I187">
@@ -8603,7 +8573,7 @@
         <v>111</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I188">
@@ -8646,7 +8616,7 @@
         <v>105</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J190">
@@ -8680,7 +8650,7 @@
         <v>111</v>
       </c>
       <c r="H191" t="str">
-        <f>F191&amp;" "&amp;G191</f>
+        <f t="shared" ref="H191:H196" si="24">F191&amp;" "&amp;G191</f>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I191">
@@ -8717,7 +8687,7 @@
         <v>111</v>
       </c>
       <c r="H192" t="str">
-        <f>F192&amp;" "&amp;G192</f>
+        <f t="shared" si="24"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I192">
@@ -8754,7 +8724,7 @@
         <v>111</v>
       </c>
       <c r="H193" t="str">
-        <f>F193&amp;" "&amp;G193</f>
+        <f t="shared" si="24"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I193">
@@ -8791,7 +8761,7 @@
         <v>111</v>
       </c>
       <c r="H194" t="str">
-        <f>F194&amp;" "&amp;G194</f>
+        <f t="shared" si="24"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I194">
@@ -8832,7 +8802,7 @@
         <v>111</v>
       </c>
       <c r="H195" t="str">
-        <f>F195&amp;" "&amp;G195</f>
+        <f t="shared" si="24"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I195">
@@ -8869,7 +8839,7 @@
         <v>111</v>
       </c>
       <c r="H196" t="str">
-        <f>F196&amp;" "&amp;G196</f>
+        <f t="shared" si="24"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I196">
@@ -9085,7 +9055,7 @@
         <v>111</v>
       </c>
       <c r="H203" t="str">
-        <f t="shared" ref="H203:H205" si="23">F203&amp;" "&amp;G203</f>
+        <f t="shared" ref="H203:H205" si="25">F203&amp;" "&amp;G203</f>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I203">
@@ -9118,7 +9088,7 @@
         <v>111</v>
       </c>
       <c r="H204" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I204">
@@ -9155,7 +9125,7 @@
         <v>111</v>
       </c>
       <c r="H205" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I205">
@@ -9198,7 +9168,7 @@
         <v>104</v>
       </c>
       <c r="H207" t="str">
-        <f t="shared" ref="H207:H217" si="24">F207&amp;" "&amp;G207</f>
+        <f t="shared" ref="H207:H217" si="26">F207&amp;" "&amp;G207</f>
         <v>technical lifetime a</v>
       </c>
       <c r="J207">
@@ -9232,7 +9202,7 @@
         <v>105</v>
       </c>
       <c r="H208" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J208">
@@ -9266,7 +9236,7 @@
         <v>103</v>
       </c>
       <c r="H209" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I209">
@@ -9303,7 +9273,7 @@
         <v>103</v>
       </c>
       <c r="H210" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I210">
@@ -9340,7 +9310,7 @@
         <v>103</v>
       </c>
       <c r="H211" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I211">
@@ -9377,7 +9347,7 @@
         <v>111</v>
       </c>
       <c r="H212" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I212">
@@ -9414,7 +9384,7 @@
         <v>111</v>
       </c>
       <c r="H213" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I213">
@@ -9451,7 +9421,7 @@
         <v>111</v>
       </c>
       <c r="H214" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I214">
@@ -9488,7 +9458,7 @@
         <v>111</v>
       </c>
       <c r="H215" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I215">
@@ -9525,7 +9495,7 @@
         <v>111</v>
       </c>
       <c r="H216" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I216">
@@ -9562,7 +9532,7 @@
         <v>111</v>
       </c>
       <c r="H217" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I217">
@@ -9828,7 +9798,7 @@
         <v>27</v>
       </c>
       <c r="H226" t="str">
-        <f t="shared" ref="H226:H231" si="25">F226&amp;" "&amp;G226</f>
+        <f t="shared" ref="H226:H231" si="27">F226&amp;" "&amp;G226</f>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J226">
@@ -9862,7 +9832,7 @@
         <v>104</v>
       </c>
       <c r="H227" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>technical lifetime a</v>
       </c>
       <c r="J227">
@@ -9896,7 +9866,7 @@
         <v>105</v>
       </c>
       <c r="H228" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J228">
@@ -9930,7 +9900,7 @@
         <v>103</v>
       </c>
       <c r="H229" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I229">
@@ -9967,7 +9937,7 @@
         <v>103</v>
       </c>
       <c r="H230" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I230">
@@ -10004,7 +9974,7 @@
         <v>103</v>
       </c>
       <c r="H231" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I231">
@@ -10041,7 +10011,7 @@
         <v>24</v>
       </c>
       <c r="H232" t="str">
-        <f t="shared" ref="H232:H294" si="26">F232&amp;" "&amp;G232</f>
+        <f t="shared" ref="H232:H294" si="28">F232&amp;" "&amp;G232</f>
         <v>minimal annual energy output [TWh/a]</v>
       </c>
       <c r="I232">
@@ -10078,7 +10048,7 @@
         <v>24</v>
       </c>
       <c r="H233" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>minimal annual energy output [TWh/a]</v>
       </c>
       <c r="I233">
@@ -10115,7 +10085,7 @@
         <v>24</v>
       </c>
       <c r="H234" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>minimal annual energy output [TWh/a]</v>
       </c>
       <c r="I234">
@@ -10157,7 +10127,7 @@
         <v>27</v>
       </c>
       <c r="H236" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J236">
@@ -10195,7 +10165,7 @@
         <v>104</v>
       </c>
       <c r="H237" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>technical lifetime a</v>
       </c>
       <c r="J237">
@@ -10233,7 +10203,7 @@
         <v>105</v>
       </c>
       <c r="H238" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J238">
@@ -10271,7 +10241,7 @@
         <v>103</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I239">
@@ -10312,7 +10282,7 @@
         <v>103</v>
       </c>
       <c r="H240" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I240">
@@ -10353,7 +10323,7 @@
         <v>103</v>
       </c>
       <c r="H241" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I241">
@@ -10398,7 +10368,7 @@
         <v>27</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" ref="H243" si="27">F243&amp;" "&amp;G243</f>
+        <f t="shared" ref="H243" si="29">F243&amp;" "&amp;G243</f>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J243">
@@ -10607,7 +10577,7 @@
         <v>103</v>
       </c>
       <c r="H250" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I250">
@@ -10829,7 +10799,7 @@
         <v>103</v>
       </c>
       <c r="H257" t="str">
-        <f t="shared" ref="H257" si="28">F257&amp;" "&amp;G257</f>
+        <f t="shared" ref="H257" si="30">F257&amp;" "&amp;G257</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I257">
@@ -11039,7 +11009,7 @@
         <v>103</v>
       </c>
       <c r="H264" t="str">
-        <f t="shared" ref="H264" si="29">F264&amp;" "&amp;G264</f>
+        <f t="shared" ref="H264" si="31">F264&amp;" "&amp;G264</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I264">
@@ -11084,7 +11054,7 @@
         <v>27</v>
       </c>
       <c r="H266" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J266">
@@ -11256,7 +11226,7 @@
         <v>103</v>
       </c>
       <c r="H271" t="str">
-        <f t="shared" ref="H271" si="30">F271&amp;" "&amp;G271</f>
+        <f t="shared" ref="H271" si="32">F271&amp;" "&amp;G271</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I271">
@@ -11294,7 +11264,7 @@
         <v>142</v>
       </c>
       <c r="H272" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I272">
@@ -11328,7 +11298,7 @@
         <v>142</v>
       </c>
       <c r="H273" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I273">
@@ -11362,7 +11332,7 @@
         <v>142</v>
       </c>
       <c r="H274" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I274">
@@ -11396,7 +11366,7 @@
         <v>53</v>
       </c>
       <c r="H275" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">Output Temporal Distribution Name </v>
       </c>
       <c r="L275" t="str">
@@ -11432,7 +11402,7 @@
         <v>27</v>
       </c>
       <c r="H277" t="str">
-        <f t="shared" ref="H277" si="31">F277&amp;" "&amp;G277</f>
+        <f t="shared" ref="H277" si="33">F277&amp;" "&amp;G277</f>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J277">
@@ -11600,7 +11570,7 @@
         <v>103</v>
       </c>
       <c r="H282" t="str">
-        <f t="shared" ref="H282:H286" si="32">F282&amp;" "&amp;G282</f>
+        <f t="shared" ref="H282:H286" si="34">F282&amp;" "&amp;G282</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I282">
@@ -11639,7 +11609,7 @@
         <v>142</v>
       </c>
       <c r="H283" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I283">
@@ -11674,7 +11644,7 @@
         <v>142</v>
       </c>
       <c r="H284" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I284">
@@ -11709,7 +11679,7 @@
         <v>142</v>
       </c>
       <c r="H285" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I285">
@@ -11743,7 +11713,7 @@
         <v>53</v>
       </c>
       <c r="H286" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">Output Temporal Distribution Name </v>
       </c>
       <c r="L286" t="str">
@@ -11771,7 +11741,7 @@
         <v>144</v>
       </c>
       <c r="H287" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">maximal fraction of output energy form supply </v>
       </c>
       <c r="I287">
@@ -11801,7 +11771,7 @@
         <v>144</v>
       </c>
       <c r="H288" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">maximal fraction of output energy form supply </v>
       </c>
       <c r="I288">
@@ -11831,7 +11801,7 @@
         <v>144</v>
       </c>
       <c r="H289" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">maximal fraction of output energy form supply </v>
       </c>
       <c r="I289">
@@ -11982,7 +11952,7 @@
         <v>27</v>
       </c>
       <c r="H294" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J294">
@@ -12150,7 +12120,7 @@
         <v>103</v>
       </c>
       <c r="H299" t="str">
-        <f t="shared" ref="H299:H308" si="33">F299&amp;" "&amp;G299</f>
+        <f t="shared" ref="H299:H308" si="35">F299&amp;" "&amp;G299</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I299">
@@ -12188,7 +12158,7 @@
         <v>142</v>
       </c>
       <c r="H300" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I300">
@@ -12222,7 +12192,7 @@
         <v>142</v>
       </c>
       <c r="H301" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I301">
@@ -12256,7 +12226,7 @@
         <v>142</v>
       </c>
       <c r="H302" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I302">
@@ -12286,7 +12256,7 @@
         <v>53</v>
       </c>
       <c r="H303" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">Output Temporal Distribution Name </v>
       </c>
       <c r="L303" t="str">
@@ -12435,7 +12405,7 @@
         <v>27</v>
       </c>
       <c r="H308" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J308">
@@ -12616,7 +12586,7 @@
         <v>103</v>
       </c>
       <c r="H313" t="str">
-        <f t="shared" ref="H313:H322" si="34">F313&amp;" "&amp;G313</f>
+        <f t="shared" ref="H313:H322" si="36">F313&amp;" "&amp;G313</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I313">
@@ -12655,7 +12625,7 @@
         <v>142</v>
       </c>
       <c r="H314" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I314">
@@ -12690,7 +12660,7 @@
         <v>142</v>
       </c>
       <c r="H315" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I315">
@@ -12725,7 +12695,7 @@
         <v>142</v>
       </c>
       <c r="H316" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I316">
@@ -12759,7 +12729,7 @@
         <v>53</v>
       </c>
       <c r="H317" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">Output Temporal Distribution Name </v>
       </c>
       <c r="L317" t="str">
@@ -12904,7 +12874,7 @@
         <v>27</v>
       </c>
       <c r="H322" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J322">
@@ -13080,7 +13050,7 @@
         <v>103</v>
       </c>
       <c r="H327" t="str">
-        <f t="shared" ref="H327:H331" si="35">F327&amp;" "&amp;G327</f>
+        <f t="shared" ref="H327:H331" si="37">F327&amp;" "&amp;G327</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I327">
@@ -13118,7 +13088,7 @@
         <v>142</v>
       </c>
       <c r="H328" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I328">
@@ -13152,7 +13122,7 @@
         <v>142</v>
       </c>
       <c r="H329" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I329">
@@ -13186,7 +13156,7 @@
         <v>142</v>
       </c>
       <c r="H330" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I330">
@@ -13220,7 +13190,7 @@
         <v>53</v>
       </c>
       <c r="H331" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">Output Temporal Distribution Name </v>
       </c>
       <c r="L331" t="str">
@@ -13254,7 +13224,7 @@
         <v>27</v>
       </c>
       <c r="H333" t="str">
-        <f t="shared" ref="H333:H354" si="36">F333&amp;" "&amp;G333</f>
+        <f t="shared" ref="H333:H354" si="38">F333&amp;" "&amp;G333</f>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J333">
@@ -13414,7 +13384,7 @@
         <v>103</v>
       </c>
       <c r="H338" t="str">
-        <f t="shared" ref="H338:H342" si="37">F338&amp;" "&amp;G338</f>
+        <f t="shared" ref="H338:H342" si="39">F338&amp;" "&amp;G338</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I338">
@@ -13448,7 +13418,7 @@
         <v>142</v>
       </c>
       <c r="H339" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I339">
@@ -13482,7 +13452,7 @@
         <v>142</v>
       </c>
       <c r="H340" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I340">
@@ -13516,7 +13486,7 @@
         <v>142</v>
       </c>
       <c r="H341" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">minimal fraction of output energy form supply </v>
       </c>
       <c r="I341">
@@ -13550,7 +13520,7 @@
         <v>53</v>
       </c>
       <c r="H342" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">Output Temporal Distribution Name </v>
       </c>
       <c r="L342" t="str">
@@ -13749,7 +13719,7 @@
         <v>103</v>
       </c>
       <c r="H349" t="str">
-        <f t="shared" ref="H349" si="38">F349&amp;" "&amp;G349</f>
+        <f t="shared" ref="H349" si="40">F349&amp;" "&amp;G349</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I349">
@@ -13786,7 +13756,7 @@
         <v>105</v>
       </c>
       <c r="H350" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J350">
@@ -13820,7 +13790,7 @@
         <v>111</v>
       </c>
       <c r="H351" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I351">
@@ -13857,7 +13827,7 @@
         <v>111</v>
       </c>
       <c r="H352" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I352">
@@ -13894,7 +13864,7 @@
         <v>111</v>
       </c>
       <c r="H353" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I353">
@@ -13931,7 +13901,7 @@
         <v>111</v>
       </c>
       <c r="H354" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I354">
@@ -14167,7 +14137,7 @@
         <v>103</v>
       </c>
       <c r="H362" t="str">
-        <f t="shared" ref="H362:H367" si="39">F362&amp;" "&amp;G362</f>
+        <f t="shared" ref="H362:H367" si="41">F362&amp;" "&amp;G362</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I362">
@@ -14204,7 +14174,7 @@
         <v>105</v>
       </c>
       <c r="H363" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J363">
@@ -14238,7 +14208,7 @@
         <v>111</v>
       </c>
       <c r="H364" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I364">
@@ -14275,7 +14245,7 @@
         <v>111</v>
       </c>
       <c r="H365" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I365">
@@ -14312,7 +14282,7 @@
         <v>111</v>
       </c>
       <c r="H366" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I366">
@@ -14349,7 +14319,7 @@
         <v>111</v>
       </c>
       <c r="H367" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I367">
@@ -14585,7 +14555,7 @@
         <v>103</v>
       </c>
       <c r="H375" t="str">
-        <f t="shared" ref="H375:H380" si="40">F375&amp;" "&amp;G375</f>
+        <f t="shared" ref="H375:H380" si="42">F375&amp;" "&amp;G375</f>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I375">
@@ -14622,7 +14592,7 @@
         <v>105</v>
       </c>
       <c r="H376" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J376">
@@ -14656,7 +14626,7 @@
         <v>111</v>
       </c>
       <c r="H377" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I377">
@@ -14693,7 +14663,7 @@
         <v>111</v>
       </c>
       <c r="H378" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I378">
@@ -14730,7 +14700,7 @@
         <v>111</v>
       </c>
       <c r="H379" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I379">
@@ -14767,7 +14737,7 @@
         <v>111</v>
       </c>
       <c r="H380" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I380">
@@ -14838,7 +14808,7 @@
         <v>27</v>
       </c>
       <c r="H383" t="str">
-        <f t="shared" ref="H383:H406" si="41">F383&amp;" "&amp;G383</f>
+        <f t="shared" ref="H383:H406" si="43">F383&amp;" "&amp;G383</f>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J383">
@@ -14872,7 +14842,7 @@
         <v>104</v>
       </c>
       <c r="H384" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>technical lifetime a</v>
       </c>
       <c r="J384">
@@ -15024,7 +14994,7 @@
         <v>111</v>
       </c>
       <c r="H388" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I388">
@@ -15054,7 +15024,7 @@
         <v>53</v>
       </c>
       <c r="H389" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v xml:space="preserve">Output Temporal Distribution Name </v>
       </c>
       <c r="L389" t="s">
@@ -15087,7 +15057,7 @@
         <v>27</v>
       </c>
       <c r="H391" t="str">
-        <f t="shared" ref="H391:H392" si="42">F391&amp;" "&amp;G391</f>
+        <f t="shared" ref="H391:H392" si="44">F391&amp;" "&amp;G391</f>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J391">
@@ -15125,7 +15095,7 @@
         <v>104</v>
       </c>
       <c r="H392" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>technical lifetime a</v>
       </c>
       <c r="J392">
@@ -15285,7 +15255,7 @@
         <v>111</v>
       </c>
       <c r="H396" t="str">
-        <f t="shared" ref="H396" si="43">F396&amp;" "&amp;G396</f>
+        <f t="shared" ref="H396" si="45">F396&amp;" "&amp;G396</f>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I396">
@@ -15326,7 +15296,7 @@
         <v>111</v>
       </c>
       <c r="H397" t="str">
-        <f t="shared" ref="H397:H398" si="44">F397&amp;" "&amp;G397</f>
+        <f t="shared" ref="H397:H398" si="46">F397&amp;" "&amp;G397</f>
         <v>residual capacity [GW]</v>
       </c>
       <c r="I397">
@@ -15360,7 +15330,7 @@
         <v>53</v>
       </c>
       <c r="H398" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v xml:space="preserve">Output Temporal Distribution Name </v>
       </c>
       <c r="L398" t="s">
@@ -15396,7 +15366,7 @@
         <v>104</v>
       </c>
       <c r="H400" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>technical lifetime a</v>
       </c>
       <c r="J400">
@@ -15423,7 +15393,7 @@
         <v>27</v>
       </c>
       <c r="H401" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J401">
@@ -15457,7 +15427,7 @@
         <v>103</v>
       </c>
       <c r="H402" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I402">
@@ -15498,7 +15468,7 @@
         <v>103</v>
       </c>
       <c r="H403" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I403">
@@ -15539,7 +15509,7 @@
         <v>103</v>
       </c>
       <c r="H404" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I404">
@@ -15580,7 +15550,7 @@
         <v>105</v>
       </c>
       <c r="H405" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J405">
@@ -15610,7 +15580,7 @@
         <v>111</v>
       </c>
       <c r="H406" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I406">
@@ -15649,7 +15619,7 @@
         <v>104</v>
       </c>
       <c r="H408" t="str">
-        <f t="shared" ref="H408:H414" si="45">F408&amp;" "&amp;G408</f>
+        <f t="shared" ref="H408:H414" si="47">F408&amp;" "&amp;G408</f>
         <v>technical lifetime a</v>
       </c>
       <c r="J408">
@@ -15676,7 +15646,7 @@
         <v>27</v>
       </c>
       <c r="H409" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">efficiency </v>
       </c>
       <c r="J409">
@@ -15710,7 +15680,7 @@
         <v>103</v>
       </c>
       <c r="H410" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I410">
@@ -15751,7 +15721,7 @@
         <v>103</v>
       </c>
       <c r="H411" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I411">
@@ -15792,7 +15762,7 @@
         <v>103</v>
       </c>
       <c r="H412" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>investment cost [EUR/kW]</v>
       </c>
       <c r="I412">
@@ -15833,7 +15803,7 @@
         <v>105</v>
       </c>
       <c r="H413" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>fixed operation cost [EUR/kWa]</v>
       </c>
       <c r="J413">
@@ -15863,7 +15833,7 @@
         <v>111</v>
       </c>
       <c r="H414" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>max active capacity [GW]</v>
       </c>
       <c r="I414">

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia Barbosa\Documents\GITHUB\OCGModel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF92C85-9D75-496C-BC88-D510102B703F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF684E71-2097-4A47-8CE3-8B5F604D6FC3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7778" yWindow="0" windowWidth="29783" windowHeight="13680" xr2:uid="{092E4145-D123-4A76-A88A-DBE561F53C6C}"/>
+    <workbookView xWindow="8798" yWindow="0" windowWidth="6113" windowHeight="6255" xr2:uid="{092E4145-D123-4A76-A88A-DBE561F53C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -20,13 +20,13 @@
     <sheet name="Timeseries" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Mappe3Tabelle1" hidden="1">Tabelle1</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Mappe3Tabelle2" hidden="1">Tabelle2[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Tabelle1AJ" hidden="1">Data!$B:$L</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Mappe3Tabelle11" hidden="1">Tabelle1</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Mappe3Tabelle21" hidden="1">Tabelle2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Tabelle1AJ1" hidden="1">Data!$B:$L</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -193,7 +193,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Tabelle1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Mappe3Tabelle1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Mappe3Tabelle11"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -202,7 +202,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Tabelle2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Mappe3Tabelle2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Mappe3Tabelle21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -211,7 +211,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Bereich" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Tabelle1AJ"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Tabelle1AJ1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -226,7 +226,7 @@
   </metadataTypes>
   <metadataStrings count="2">
     <s v="ThisWorkbookDataModel"/>
-    <s v="{[Tabelle2].[Conversion Process].&amp;[Power-to-Liquid]}"/>
+    <s v="{[Tabelle2].[Conversion Process].&amp;[Gas PP]}"/>
   </metadataStrings>
   <mdxMetadata count="1">
     <mdx n="0" f="s">
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="255">
   <si>
     <t>ID</t>
   </si>
@@ -821,9 +821,6 @@
   </si>
   <si>
     <t>Instance-Specific</t>
-  </si>
-  <si>
-    <t>2020</t>
   </si>
   <si>
     <t>Electric Furnace</t>
@@ -952,10 +949,109 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>[20]</t>
-  </si>
-  <si>
-    <t>M,V</t>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">License </t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t> BUNDESMINISTERIUM FÜR WIRTSCHAFT UND ENERGIE</t>
+  </si>
+  <si>
+    <t>https://www.bmwi.de/Redaktion/DE/Artikel/Energie/energiedaten-gesamtausgabe.html</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.dena.de/newsroom/publikationsdetailansicht/pub/dena-leitstudie-integrierte-energiewende/</t>
+  </si>
+  <si>
+    <t>https://www.umweltbundesamt.de/en/publikationen/entwicklung-der-spezifischen-kohlendioxid-6</t>
+  </si>
+  <si>
+    <t>Umweltbundesamt</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Fachagentur Nachwachsende Rohstoffe e.V. (FNR)</t>
+  </si>
+  <si>
+    <t>https://mediathek.fnr.de/leitfaden-feste-biobrennstoffe.html</t>
+  </si>
+  <si>
+    <t>https://www.osti.gov/biblio/1009352</t>
+  </si>
+  <si>
+    <t>https://transparency.entsoe.eu/dashboard/show</t>
+  </si>
+  <si>
+    <t>https://www.bdew.de/media/documents/Leitfaden_20160630_Abwicklung-Standardlastprofile-Gas.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bundesnetzagentur.de/DE/Sachgebiete/ElektrizitaetundGas/Unternehmen_Institutionen/Versorgungssicherheit/Erzeugungskapazitaeten/Kraftwerksliste/kraftwerksliste-node.html</t>
+  </si>
+  <si>
+    <t>Bundesnetzagentur</t>
+  </si>
+  <si>
+    <t>BDEW</t>
+  </si>
+  <si>
+    <t>https://issuu.com/bdew_ev/docs/ga_gas_15-001-02_heizungsmarkt-bros</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/301340138_Konventionelle_Kraftwerke_-_Technologiesteckbrief_zur_Analyse_Flexibilitatskonzepte_fur_die_Stromversorgung_2050</t>
+  </si>
+  <si>
+    <t>http://www.basisbioenergy.eu/fileadmin/BASIS/D3.5_Report_on_conversion_efficiency_of_biomass.pdf</t>
+  </si>
+  <si>
+    <t>https://www.diw.de/de/diw_01.c.457880.de/publikationen/data_documentation/2013_0068/current_and_prospective_costs_of_electricity_generation_until_2050.html</t>
+  </si>
+  <si>
+    <t>DIW Berlin</t>
+  </si>
+  <si>
+    <t>https://www.umweltbundesamt.de/publikationen/energieerzeugung-aus-abfaellen-stand-potenziale-in</t>
+  </si>
+  <si>
+    <t>https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-individual-heating-plants</t>
+  </si>
+  <si>
+    <t>Danish Energy Agency and Energinet</t>
+  </si>
+  <si>
+    <t>https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-industrial-process-heat-and</t>
+  </si>
+  <si>
+    <t>https://www.umweltbundesamt.de/publikationen/daten-fakten-zu-braun-steinkohlen-2017</t>
+  </si>
+  <si>
+    <t>https://www.dena.de/newsroom/publikationsdetailansicht/pub/dena-factsheets-powerfuels/</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1361920911000459?casa_token=4vC8iPLufhcAAAAA:v9E_AepBEO1gy_qAJ5Ht4wn4oq6dIMzDUA0uRo2VJ2S-6kgIuM9GZGOPEnUNhgx4hP8jufc7bv2X</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>[1][9]</t>
+  </si>
+  <si>
+    <t>I,W</t>
+  </si>
+  <si>
+    <t>[12]</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1258,12 +1354,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1286,7 +1398,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Julia Barbosa" refreshedDate="44347.592941550924" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8B92ED4A-E944-4AB6-A4F8-BEDFFB2BD68D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Julia Barbosa" refreshedDate="44349.883253356478" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8B92ED4A-E944-4AB6-A4F8-BEDFFB2BD68D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="10">
     <cacheField name="[Tabelle2].[Parameter Type].[Parameter Type]" caption="Parameter Type" numFmtId="0" hierarchy="24" level="1">
@@ -1304,8 +1416,10 @@
       </extLst>
     </cacheField>
     <cacheField name="[Tabelle2].[Paramter Name].[Paramter Name]" caption="Paramter Name" numFmtId="0" hierarchy="25" level="1">
-      <sharedItems count="5">
+      <sharedItems count="7">
         <s v="max active capacity"/>
+        <s v="residual capacity"/>
+        <s v="technical availability"/>
         <s v="efficiency"/>
         <s v="fixed operation cost"/>
         <s v="investment cost"/>
@@ -1315,10 +1429,12 @@
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
           <x15:cachedUniqueNames>
             <x15:cachedUniqueName index="0" name="[Tabelle2].[Paramter Name].&amp;[max active capacity]"/>
-            <x15:cachedUniqueName index="1" name="[Tabelle2].[Paramter Name].&amp;[efficiency]"/>
-            <x15:cachedUniqueName index="2" name="[Tabelle2].[Paramter Name].&amp;[fixed operation cost]"/>
-            <x15:cachedUniqueName index="3" name="[Tabelle2].[Paramter Name].&amp;[investment cost]"/>
-            <x15:cachedUniqueName index="4" name="[Tabelle2].[Paramter Name].&amp;[technical lifetime]"/>
+            <x15:cachedUniqueName index="1" name="[Tabelle2].[Paramter Name].&amp;[residual capacity]"/>
+            <x15:cachedUniqueName index="2" name="[Tabelle2].[Paramter Name].&amp;[technical availability]"/>
+            <x15:cachedUniqueName index="3" name="[Tabelle2].[Paramter Name].&amp;[efficiency]"/>
+            <x15:cachedUniqueName index="4" name="[Tabelle2].[Paramter Name].&amp;[fixed operation cost]"/>
+            <x15:cachedUniqueName index="5" name="[Tabelle2].[Paramter Name].&amp;[investment cost]"/>
+            <x15:cachedUniqueName index="6" name="[Tabelle2].[Paramter Name].&amp;[technical lifetime]"/>
           </x15:cachedUniqueNames>
         </ext>
       </extLst>
@@ -1327,8 +1443,8 @@
       <sharedItems containsBlank="1" count="6">
         <m/>
         <s v="2016"/>
-        <s v="2020"/>
         <s v="2030"/>
+        <s v="2040"/>
         <s v="2050"/>
         <s v="-" u="1"/>
       </sharedItems>
@@ -1337,8 +1453,8 @@
           <x15:cachedUniqueNames>
             <x15:cachedUniqueName index="0" name="[Tabelle2].[Year].&amp;"/>
             <x15:cachedUniqueName index="1" name="[Tabelle2].[Year].&amp;[2016]"/>
-            <x15:cachedUniqueName index="2" name="[Tabelle2].[Year].&amp;[2020]"/>
-            <x15:cachedUniqueName index="3" name="[Tabelle2].[Year].&amp;[2030]"/>
+            <x15:cachedUniqueName index="2" name="[Tabelle2].[Year].&amp;[2030]"/>
+            <x15:cachedUniqueName index="3" name="[Tabelle2].[Year].&amp;[2040]"/>
             <x15:cachedUniqueName index="4" name="[Tabelle2].[Year].&amp;[2050]"/>
             <x15:cachedUniqueName index="5" name="[Tabelle2].[Year].&amp;[-]"/>
           </x15:cachedUniqueNames>
@@ -1347,24 +1463,24 @@
     </cacheField>
     <cacheField name="[Tabelle2].[Input Energy Form].[Input Energy Form]" caption="Input Energy Form" numFmtId="0" hierarchy="22" level="1">
       <sharedItems count="1">
-        <s v="Electricity"/>
+        <s v="Gas"/>
       </sharedItems>
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
           <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[Tabelle2].[Input Energy Form].&amp;[Electricity]"/>
+            <x15:cachedUniqueName index="0" name="[Tabelle2].[Input Energy Form].&amp;[Gas]"/>
           </x15:cachedUniqueNames>
         </ext>
       </extLst>
     </cacheField>
     <cacheField name="[Tabelle2].[Output Energy Form].[Output Energy Form]" caption="Output Energy Form" numFmtId="0" hierarchy="23" level="1">
       <sharedItems count="1">
-        <s v="Liquid Fuel"/>
+        <s v="Electricity"/>
       </sharedItems>
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
           <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[Tabelle2].[Output Energy Form].&amp;[Liquid Fuel]"/>
+            <x15:cachedUniqueName index="0" name="[Tabelle2].[Output Energy Form].&amp;[Electricity]"/>
           </x15:cachedUniqueNames>
         </ext>
       </extLst>
@@ -1543,8 +1659,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D82B929-2343-4D4A-9782-373CEFFDD6B6}" name="Summary" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" rowHeaderCaption="Parameters" colHeaderCaption="Year">
-  <location ref="A4:S13" firstHeaderRow="1" firstDataRow="3" firstDataCol="4" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D82B929-2343-4D4A-9782-373CEFFDD6B6}" name="Summary" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" rowHeaderCaption="Parameters" colHeaderCaption="Year">
+  <location ref="A4:S15" firstHeaderRow="1" firstDataRow="3" firstDataCol="4" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="2">
@@ -1558,12 +1674,14 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -1651,7 +1769,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -1661,29 +1779,41 @@
       <x/>
       <x/>
     </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="3"/>
       <x v="1"/>
       <x/>
       <x/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="4"/>
       <x v="2"/>
       <x/>
       <x/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="5"/>
       <x v="3"/>
       <x/>
       <x/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="6"/>
       <x v="4"/>
       <x/>
       <x/>
@@ -1746,7 +1876,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="9" hier="21" name="[Tabelle2].[Conversion Process].&amp;[Power-to-Liquid]" cap="Power-to-Liquid"/>
+    <pageField fld="9" hier="21" name="[Tabelle2].[Conversion Process].&amp;[Gas PP]" cap="Gas PP"/>
   </pageFields>
   <dataFields count="3">
     <dataField name="Value" fld="8" baseField="0" baseItem="0"/>
@@ -1754,7 +1884,7 @@
     <dataField name="note" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -1851,7 +1981,7 @@
     <tableColumn id="4" xr3:uid="{504D511D-F4CC-4FC8-8F8E-135F89745636}" name="Parameter Type"/>
     <tableColumn id="5" xr3:uid="{1DBC8716-5ABC-4FFF-81BC-49D901B155A1}" name="Paramter Name"/>
     <tableColumn id="6" xr3:uid="{5924147F-ED69-4BF5-8E26-5799DF415E69}" name="Unit"/>
-    <tableColumn id="7" xr3:uid="{A1EBE9BB-7315-4DC1-93A3-6C0BBBFB666D}" name="Name with Unit" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{A1EBE9BB-7315-4DC1-93A3-6C0BBBFB666D}" name="Name with Unit" dataDxfId="2">
       <calculatedColumnFormula>F2&amp;" "&amp;G2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{B8C0D1AA-5FD5-4604-9F3F-7494093A825F}" name="Year"/>
@@ -2160,32 +2290,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7778C-203A-4C73-AA60-F850B2038441}">
-  <dimension ref="A2:S13"/>
+  <dimension ref="A2:S15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.06640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.06640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.06640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.06640625" bestFit="1" customWidth="1"/>
@@ -2197,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" vm="1">
-        <v>174</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -2213,10 +2343,10 @@
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
@@ -2309,19 +2439,23 @@
         <v>111</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+        <v>12.5</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>253</v>
+      </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -2333,45 +2467,68 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
+      <c r="A9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="H9" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="17">
+        <v>6.25</v>
+      </c>
       <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="M9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
       <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="P9" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" s="17">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
-        <v>166</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -2386,21 +2543,10 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="17">
-        <v>50</v>
-      </c>
+      <c r="A11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -2418,68 +2564,56 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="17">
-        <v>2100</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="N12" s="17">
-        <v>1806</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>1300</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>166</v>
-      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="17">
-        <v>20</v>
-      </c>
-      <c r="F13" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>229</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -2494,6 +2628,80 @@
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
     </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
+        <v>400</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17">
+        <v>400</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
+        <v>400</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="17">
+        <v>25</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2503,7 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E9DF10-24AC-4A6A-9204-A1EA73466D28}">
   <dimension ref="A1:M414"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J349" sqref="J349"/>
     </sheetView>
   </sheetViews>
@@ -3053,7 +3261,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -3083,7 +3291,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3120,7 +3328,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3157,7 +3365,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3194,7 +3402,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -4137,7 +4345,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
@@ -4163,7 +4371,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -4198,7 +4406,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -4239,7 +4447,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -4280,7 +4488,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
@@ -4328,7 +4536,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>88</v>
@@ -4354,7 +4562,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>88</v>
@@ -4385,7 +4593,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>88</v>
@@ -4422,7 +4630,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>88</v>
@@ -4459,7 +4667,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>88</v>
@@ -4506,7 +4714,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
         <v>90</v>
@@ -4532,7 +4740,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
         <v>90</v>
@@ -4563,7 +4771,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
         <v>90</v>
@@ -4600,7 +4808,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
         <v>90</v>
@@ -4637,7 +4845,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
         <v>90</v>
@@ -4681,7 +4889,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>92</v>
@@ -4707,7 +4915,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>92</v>
@@ -4734,7 +4942,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>92</v>
@@ -4771,7 +4979,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>92</v>
@@ -4808,7 +5016,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>92</v>
@@ -4853,7 +5061,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>96</v>
@@ -4879,7 +5087,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>96</v>
@@ -4910,7 +5118,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>96</v>
@@ -4947,7 +5155,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>96</v>
@@ -4984,7 +5192,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>96</v>
@@ -5031,7 +5239,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B82" t="s">
         <v>98</v>
@@ -5057,7 +5265,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
         <v>98</v>
@@ -5088,7 +5296,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
@@ -5125,7 +5333,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B85" t="s">
         <v>98</v>
@@ -5162,7 +5370,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B86" t="s">
         <v>98</v>
@@ -5206,7 +5414,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>99</v>
@@ -5232,7 +5440,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>99</v>
@@ -5263,7 +5471,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>99</v>
@@ -5300,7 +5508,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>99</v>
@@ -5337,7 +5545,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>99</v>
@@ -5387,7 +5595,7 @@
         <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94" t="s">
         <v>37</v>
@@ -5418,7 +5626,7 @@
         <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
         <v>37</v>
@@ -5452,7 +5660,7 @@
         <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
         <v>37</v>
@@ -5486,7 +5694,7 @@
         <v>131</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
         <v>37</v>
@@ -5523,7 +5731,7 @@
         <v>131</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
         <v>37</v>
@@ -5560,7 +5768,7 @@
         <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s">
         <v>37</v>
@@ -5597,7 +5805,7 @@
         <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C100" t="s">
         <v>37</v>
@@ -5634,7 +5842,7 @@
         <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C101" t="s">
         <v>37</v>
@@ -5675,7 +5883,7 @@
         <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
         <v>37</v>
@@ -5716,7 +5924,7 @@
         <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C103" t="s">
         <v>37</v>
@@ -5757,7 +5965,7 @@
         <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
         <v>37</v>
@@ -5794,7 +6002,7 @@
         <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C105" t="s">
         <v>37</v>
@@ -5831,7 +6039,7 @@
         <v>131</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
         <v>37</v>
@@ -7482,7 +7690,7 @@
         <v>131</v>
       </c>
       <c r="B156" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C156" t="s">
         <v>18</v>
@@ -7516,7 +7724,7 @@
         <v>131</v>
       </c>
       <c r="B157" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C157" t="s">
         <v>18</v>
@@ -7553,7 +7761,7 @@
         <v>131</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C158" t="s">
         <v>18</v>
@@ -7590,7 +7798,7 @@
         <v>131</v>
       </c>
       <c r="B159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C159" t="s">
         <v>18</v>
@@ -7627,7 +7835,7 @@
         <v>131</v>
       </c>
       <c r="B160" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C160" t="s">
         <v>18</v>
@@ -7668,7 +7876,7 @@
         <v>131</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C161" t="s">
         <v>18</v>
@@ -7705,7 +7913,7 @@
         <v>131</v>
       </c>
       <c r="B162" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C162" t="s">
         <v>18</v>
@@ -7748,7 +7956,7 @@
         <v>131</v>
       </c>
       <c r="B164" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C164" t="s">
         <v>18</v>
@@ -7782,7 +7990,7 @@
         <v>131</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
@@ -7816,7 +8024,7 @@
         <v>131</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C166" t="s">
         <v>18</v>
@@ -7853,7 +8061,7 @@
         <v>131</v>
       </c>
       <c r="B167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
@@ -7890,7 +8098,7 @@
         <v>131</v>
       </c>
       <c r="B168" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C168" t="s">
         <v>18</v>
@@ -7927,7 +8135,7 @@
         <v>131</v>
       </c>
       <c r="B169" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C169" t="s">
         <v>18</v>
@@ -7960,7 +8168,7 @@
         <v>131</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C170" t="s">
         <v>18</v>
@@ -7997,7 +8205,7 @@
         <v>131</v>
       </c>
       <c r="B171" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C171" t="s">
         <v>18</v>
@@ -8040,7 +8248,7 @@
         <v>131</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C173" t="s">
         <v>18</v>
@@ -8074,7 +8282,7 @@
         <v>131</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C174" t="s">
         <v>18</v>
@@ -8111,7 +8319,7 @@
         <v>131</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C175" t="s">
         <v>18</v>
@@ -8148,7 +8356,7 @@
         <v>131</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C176" t="s">
         <v>18</v>
@@ -8185,7 +8393,7 @@
         <v>131</v>
       </c>
       <c r="B177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C177" t="s">
         <v>18</v>
@@ -8226,7 +8434,7 @@
         <v>131</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C178" t="s">
         <v>18</v>
@@ -8263,7 +8471,7 @@
         <v>131</v>
       </c>
       <c r="B179" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C179" t="s">
         <v>18</v>
@@ -8306,7 +8514,7 @@
         <v>131</v>
       </c>
       <c r="B181" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C181" t="s">
         <v>18</v>
@@ -8340,7 +8548,7 @@
         <v>131</v>
       </c>
       <c r="B182" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C182" t="s">
         <v>18</v>
@@ -8374,7 +8582,7 @@
         <v>131</v>
       </c>
       <c r="B183" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C183" t="s">
         <v>18</v>
@@ -8411,7 +8619,7 @@
         <v>131</v>
       </c>
       <c r="B184" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C184" t="s">
         <v>18</v>
@@ -8448,7 +8656,7 @@
         <v>131</v>
       </c>
       <c r="B185" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C185" t="s">
         <v>18</v>
@@ -8485,7 +8693,7 @@
         <v>131</v>
       </c>
       <c r="B186" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C186" t="s">
         <v>18</v>
@@ -8518,7 +8726,7 @@
         <v>131</v>
       </c>
       <c r="B187" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C187" t="s">
         <v>18</v>
@@ -8555,7 +8763,7 @@
         <v>131</v>
       </c>
       <c r="B188" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C188" t="s">
         <v>18</v>
@@ -8598,7 +8806,7 @@
         <v>131</v>
       </c>
       <c r="B190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C190" t="s">
         <v>18</v>
@@ -8632,7 +8840,7 @@
         <v>131</v>
       </c>
       <c r="B191" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" t="s">
         <v>18</v>
@@ -8669,7 +8877,7 @@
         <v>131</v>
       </c>
       <c r="B192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C192" t="s">
         <v>18</v>
@@ -8706,7 +8914,7 @@
         <v>131</v>
       </c>
       <c r="B193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C193" t="s">
         <v>18</v>
@@ -8743,7 +8951,7 @@
         <v>131</v>
       </c>
       <c r="B194" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C194" t="s">
         <v>18</v>
@@ -8784,7 +8992,7 @@
         <v>131</v>
       </c>
       <c r="B195" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C195" t="s">
         <v>18</v>
@@ -8821,7 +9029,7 @@
         <v>131</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C196" t="s">
         <v>18</v>
@@ -8858,7 +9066,7 @@
         <v>131</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
         <v>18</v>
@@ -8892,7 +9100,7 @@
         <v>131</v>
       </c>
       <c r="B199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C199" t="s">
         <v>18</v>
@@ -8926,7 +9134,7 @@
         <v>131</v>
       </c>
       <c r="B200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
         <v>18</v>
@@ -8963,7 +9171,7 @@
         <v>131</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C201" t="s">
         <v>18</v>
@@ -9000,7 +9208,7 @@
         <v>131</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C202" t="s">
         <v>18</v>
@@ -9037,7 +9245,7 @@
         <v>131</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C203" t="s">
         <v>18</v>
@@ -9070,7 +9278,7 @@
         <v>131</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C204" t="s">
         <v>18</v>
@@ -9107,7 +9315,7 @@
         <v>131</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C205" t="s">
         <v>18</v>
@@ -9783,7 +9991,7 @@
         <v>132</v>
       </c>
       <c r="B226" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C226" t="s">
         <v>52</v>
@@ -9814,7 +10022,7 @@
         <v>132</v>
       </c>
       <c r="B227" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C227" t="s">
         <v>52</v>
@@ -9848,7 +10056,7 @@
         <v>132</v>
       </c>
       <c r="B228" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C228" t="s">
         <v>52</v>
@@ -9882,7 +10090,7 @@
         <v>132</v>
       </c>
       <c r="B229" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C229" t="s">
         <v>52</v>
@@ -9919,7 +10127,7 @@
         <v>132</v>
       </c>
       <c r="B230" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C230" t="s">
         <v>52</v>
@@ -9956,7 +10164,7 @@
         <v>132</v>
       </c>
       <c r="B231" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C231" t="s">
         <v>52</v>
@@ -9993,7 +10201,7 @@
         <v>132</v>
       </c>
       <c r="B232" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C232" t="s">
         <v>52</v>
@@ -10030,7 +10238,7 @@
         <v>132</v>
       </c>
       <c r="B233" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C233" t="s">
         <v>52</v>
@@ -10067,7 +10275,7 @@
         <v>132</v>
       </c>
       <c r="B234" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C234" t="s">
         <v>52</v>
@@ -10386,7 +10594,7 @@
         <v>132</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C245" t="s">
         <v>19</v>
@@ -10417,7 +10625,7 @@
         <v>132</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C246" t="s">
         <v>19</v>
@@ -10451,7 +10659,7 @@
         <v>132</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C247" t="s">
         <v>19</v>
@@ -10485,7 +10693,7 @@
         <v>132</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C248" t="s">
         <v>19</v>
@@ -10522,7 +10730,7 @@
         <v>132</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C249" t="s">
         <v>19</v>
@@ -10559,7 +10767,7 @@
         <v>132</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C250" t="s">
         <v>19</v>
@@ -10608,7 +10816,7 @@
         <v>132</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C252" t="s">
         <v>47</v>
@@ -10639,7 +10847,7 @@
         <v>132</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C253" t="s">
         <v>47</v>
@@ -10673,7 +10881,7 @@
         <v>132</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C254" t="s">
         <v>47</v>
@@ -10707,7 +10915,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C255" t="s">
         <v>47</v>
@@ -10744,7 +10952,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C256" t="s">
         <v>47</v>
@@ -10781,7 +10989,7 @@
         <v>132</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C257" t="s">
         <v>47</v>
@@ -15882,7 +16090,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -15890,7 +16098,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -15898,7 +16106,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -15906,7 +16114,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -15956,7 +16164,7 @@
         <v>120</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -15980,7 +16188,7 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -15996,7 +16204,7 @@
         <v>125</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -16004,7 +16212,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -16012,7 +16220,7 @@
         <v>127</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -16020,7 +16228,7 @@
         <v>162</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -16052,7 +16260,7 @@
         <v>166</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -16060,7 +16268,7 @@
         <v>167</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -16068,7 +16276,7 @@
         <v>168</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -16091,7 +16299,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>"Calculated as the total demand "&amp;References!$B$2&amp; " dived by the total supply. Where the supply is the fuel comsuntion"&amp;References!$B$2&amp;" , multiplied by the efficiency rates assumed in the model. "</f>
@@ -16106,13 +16314,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8227F6-0F17-4A43-8F29-76D579C5A5D9}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16120,21 +16328,30 @@
     <col min="1" max="1" width="3.796875" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5.06640625" style="49" customWidth="1"/>
     <col min="3" max="3" width="152.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.53125" style="2"/>
-    <col min="8" max="8" width="8.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.53125" style="2"/>
+    <col min="4" max="6" width="11.53125" style="2"/>
+    <col min="7" max="7" width="8.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.53125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -16143,10 +16360,19 @@
         <v>[1]</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A19" si="0">A2+1</f>
         <v>2</v>
@@ -16158,8 +16384,17 @@
       <c r="C3" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -16171,8 +16406,17 @@
       <c r="C4" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -16182,10 +16426,19 @@
         <v>[4]</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -16195,10 +16448,19 @@
         <v>[5]</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -16210,8 +16472,17 @@
       <c r="C7" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -16221,10 +16492,19 @@
         <v>[7]</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -16236,8 +16516,17 @@
       <c r="C9" s="46" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -16249,8 +16538,17 @@
       <c r="C10" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D10" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -16260,10 +16558,19 @@
         <v>[10]</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -16275,8 +16582,17 @@
       <c r="C12" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -16288,8 +16604,17 @@
       <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -16299,10 +16624,19 @@
         <v>[13]</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -16314,8 +16648,17 @@
       <c r="C15" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -16327,8 +16670,17 @@
       <c r="C16" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -16340,8 +16692,17 @@
       <c r="C17" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -16353,8 +16714,14 @@
       <c r="C18" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -16364,12 +16731,41 @@
         <v>[18]</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{5D020615-B045-48E5-BABF-FC5330939301}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{848D610A-28A8-4683-AC67-C31C3030DEB8}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{E5CD652B-8055-48F6-8922-1AAB561BF97F}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{10B87F84-6B4D-4B08-BB69-F18C218B0601}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{619A1B1D-B8C3-4EE3-8CCF-6383ECBB53EF}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{C822DA85-63CB-4551-B334-099A0AB72FD4}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{780E5746-8A67-4E5A-8558-5B11EDB06D72}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{AEE44CE4-48B5-4895-B9CB-5F11FC8FD327}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{DF3C3075-8A2D-415E-BD19-CBE9E0506D48}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{07574E76-33C4-4169-ACCD-319B33165694}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{0028F0B2-7B6A-4B9E-AD10-D4614539F1B4}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{DAF40B2C-8F8F-4BD5-A042-E51DEB4BC36A}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{C1F5C3F0-245B-494D-94A7-59D7321F18E3}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{05F44613-9E00-47F1-9E2D-2B498D51BD35}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{8D058BB8-509A-4D49-8798-8879B3D9EDFE}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{DA3D6DE1-EB90-4E60-9E1F-D7D8CEB577F9}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{371D5BBB-64D3-438F-BD19-74FF7FB0D0E7}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{BBF50630-B354-4FE5-AD39-68ABC4AC7882}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
